--- a/parameter_files/v4/de_dg_sw_upper.xlsx
+++ b/parameter_files/v4/de_dg_sw_upper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{FBCBA10B-447A-4FF7-BCC3-257E4CF610A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8704CC4E-C2EC-4CCD-A8D3-FC7AD679971C}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{FBCBA10B-447A-4FF7-BCC3-257E4CF610A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA89A450-EC8F-4AEA-8BEE-20D4064B2D73}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDAEAEA6-CC2A-4901-87EA-4921D17B5775}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BDAEAEA6-CC2A-4901-87EA-4921D17B5775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>other dischargers</t>
   </si>
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -364,6 +361,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213BE4C-E12D-4F30-91F0-591BDDAEA348}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,22 +678,22 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>0</v>
@@ -700,7 +701,7 @@
     </row>
     <row r="2" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -711,7 +712,7 @@
     </row>
     <row r="3" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -722,7 +723,7 @@
     </row>
     <row r="4" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -733,7 +734,7 @@
     </row>
     <row r="5" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -744,7 +745,7 @@
     </row>
     <row r="6" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -755,7 +756,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -766,7 +767,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -777,7 +778,7 @@
     </row>
     <row r="9" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -788,10 +789,10 @@
     </row>
     <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -802,7 +803,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -813,54 +814,58 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-1</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -870,18 +875,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -899,7 +896,7 @@
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -907,33 +904,33 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -944,11 +941,11 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -966,7 +963,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -978,7 +975,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="4"/>
@@ -999,8 +996,8 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="4"/>
@@ -1010,17 +1007,6 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
